--- a/Template-PDF.xlsx
+++ b/Template-PDF.xlsx
@@ -608,8 +608,12 @@
       <c r="H3" s="12">
         <v>1.3E7</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.0</v>
+      </c>
       <c r="K3" s="12">
         <v>2.9E7</v>
       </c>
@@ -619,13 +623,21 @@
       <c r="M3" s="12">
         <v>0.0</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="N3" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0.0</v>
+      </c>
       <c r="P3" s="12">
         <v>2.7E7</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="Q3" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0.0</v>
+      </c>
       <c r="S3" s="12">
         <v>2.7E7</v>
       </c>
@@ -664,8 +676,12 @@
       <c r="H4" s="12">
         <v>1.3E7</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.0</v>
+      </c>
       <c r="K4" s="12">
         <v>2.9E7</v>
       </c>
@@ -675,13 +691,21 @@
       <c r="M4" s="12">
         <v>0.0</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="N4" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.0</v>
+      </c>
       <c r="P4" s="12">
         <v>2.7E7</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="Q4" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0.0</v>
+      </c>
       <c r="S4" s="12">
         <v>2.7E7</v>
       </c>
